--- a/vela.xlsx
+++ b/vela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfusi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB538449-C644-40F6-B17A-14AE9A4E2AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DC669-5081-412B-88C6-3CDB2FB4496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="4515" windowWidth="30090" windowHeight="23310" xr2:uid="{5F6A2F6B-21DA-413B-BA56-383A93D9DD4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -549,6 +549,30 @@
   </si>
   <si>
     <t>XVII SECOLO</t>
+  </si>
+  <si>
+    <t>DUT</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LATI1261</t>
+  </si>
+  <si>
+    <t>anci1242</t>
+  </si>
+  <si>
+    <t>vene1258</t>
+  </si>
+  <si>
+    <t>completa</t>
+  </si>
+  <si>
+    <t>parziale</t>
   </si>
 </sst>
 </file>
@@ -621,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +674,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,12 +1011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B416D914-D4D8-4824-A381-7BAFB5B7C1D7}">
   <dimension ref="A1:DR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="12.28515625" customWidth="1"/>
     <col min="122" max="122" width="13.7109375" customWidth="1"/>
   </cols>
@@ -1437,8 +1463,12 @@
       <c r="Z2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="4"/>
+      <c r="AA2" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="AC2" s="4" t="s">
         <v>164</v>
       </c>
@@ -1475,7 +1505,7 @@
       <c r="BB2" s="4"/>
       <c r="BC2" s="11"/>
       <c r="BD2" s="4" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="BE2" s="11"/>
       <c r="BF2" s="1" t="s">
@@ -1641,19 +1671,27 @@
       <c r="Z3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="4"/>
+      <c r="AA3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
         <v>136</v>
       </c>
       <c r="AE3" s="11"/>
       <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
+      <c r="AG3" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
+      <c r="AK3" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
@@ -1672,7 +1710,9 @@
       <c r="BA3" s="4"/>
       <c r="BB3" s="4"/>
       <c r="BC3" s="11"/>
-      <c r="BD3" s="4"/>
+      <c r="BD3" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="BE3" s="11"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
@@ -1778,7 +1818,9 @@
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="20">
+        <v>1750</v>
+      </c>
       <c r="Q4" s="4" t="s">
         <v>131</v>
       </c>
@@ -1807,10 +1849,14 @@
         <v>134</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
         <v>136</v>

--- a/vela.xlsx
+++ b/vela.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfusi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DC669-5081-412B-88C6-3CDB2FB4496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14712654-22B8-409F-B7C9-577DA5D712AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="4515" windowWidth="30090" windowHeight="23310" xr2:uid="{5F6A2F6B-21DA-413B-BA56-383A93D9DD4B}"/>
   </bookViews>
@@ -569,10 +569,10 @@
     <t>vene1258</t>
   </si>
   <si>
-    <t>completa</t>
-  </si>
-  <si>
     <t>parziale</t>
+  </si>
+  <si>
+    <t>totale</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:DR10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+      <selection activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1505,7 @@
       <c r="BB2" s="4"/>
       <c r="BC2" s="11"/>
       <c r="BD2" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BE2" s="11"/>
       <c r="BF2" s="1" t="s">
@@ -1711,7 +1711,7 @@
       <c r="BB3" s="4"/>
       <c r="BC3" s="11"/>
       <c r="BD3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BE3" s="11"/>
       <c r="BF3" s="1"/>
